--- a/instructions.xlsx
+++ b/instructions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\licence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0FE57C-50EC-4BD5-9222-161360DB95F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F8825D-99AE-4D9B-B822-B6D1EDF8ED15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{91C4D8B7-781A-4270-B9DA-6E44614CEE0C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
   <si>
     <t>A</t>
   </si>
@@ -174,6 +174,48 @@
   </si>
   <si>
     <t>add16(reg16,imm8)</t>
+  </si>
+  <si>
+    <t>int set</t>
+  </si>
+  <si>
+    <t>int reset</t>
+  </si>
+  <si>
+    <t>read port 0</t>
+  </si>
+  <si>
+    <t>write to port 0</t>
+  </si>
+  <si>
+    <t>read port 1</t>
+  </si>
+  <si>
+    <t>write to port 1</t>
+  </si>
+  <si>
+    <t>read port 2</t>
+  </si>
+  <si>
+    <t>write to port 2</t>
+  </si>
+  <si>
+    <t>read port 3</t>
+  </si>
+  <si>
+    <t>write to port 3</t>
+  </si>
+  <si>
+    <t>read port 4</t>
+  </si>
+  <si>
+    <t>write to port 4</t>
+  </si>
+  <si>
+    <t>read port 5</t>
+  </si>
+  <si>
+    <t>write to port 5</t>
   </si>
 </sst>
 </file>
@@ -577,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65790538-65AA-42A5-B150-78689357AF68}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,41 +769,41 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>18</v>
+      <c r="B4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>18</v>
@@ -769,11 +811,11 @@
       <c r="O4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>18</v>
+      <c r="P4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
